--- a/Group report/Risikoanalysis_Template.xlsx
+++ b/Group report/Risikoanalysis_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ngoc_Anh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ngoc_Anh/Documents/GitHub/09_TEAM/Group report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05432B8-411B-8149-B86C-88ADF274D57E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9F7322-ECF1-6248-A021-6B6E1E8FB634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Projektname</t>
   </si>
@@ -627,6 +627,39 @@
   </si>
   <si>
     <t>Get information from the IT department in order to make sure to keep track about availability of the website</t>
+  </si>
+  <si>
+    <t>Information being copied</t>
+  </si>
+  <si>
+    <t>Information on the website</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Increasing competition</t>
+  </si>
+  <si>
+    <t>Losing potential clients</t>
+  </si>
+  <si>
+    <t>Negative marketing</t>
+  </si>
+  <si>
+    <t>Authenticity of information is not verified</t>
+  </si>
+  <si>
+    <t>Compliance and regulation</t>
+  </si>
+  <si>
+    <t>SLA violation</t>
+  </si>
+  <si>
+    <t>Non-acceptance of employees</t>
+  </si>
+  <si>
+    <t>Internal risk of automated information</t>
   </si>
 </sst>
 </file>
@@ -1153,6 +1186,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1172,24 +1222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1401,7 +1434,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C846A050-E74C-1B4B-8EE3-575D0D8FB342}</c15:txfldGUID>
+                      <c15:txfldGUID>{BCBD5950-D5BA-BD47-B08D-21E79C848565}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$7</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1577,7 +1610,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D5996FD2-FDD8-B141-BE1C-6A0805C12C19}</c15:txfldGUID>
+                      <c15:txfldGUID>{29D09FE9-37F4-FB40-A9C1-E5603D350150}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$8</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1670,7 +1703,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3     </c:v>
+                  <c:v>3     Information being copied</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1794,7 +1827,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4     </c:v>
+                  <c:v>4     Competition</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1906,7 +1939,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5     </c:v>
+                  <c:v>5     Negative marketing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1985,7 +2018,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BBB07121-B306-E44A-AB36-A443F1C6D1B4}</c15:txfldGUID>
+                      <c15:txfldGUID>{DFB3B13A-D945-EF4C-8D92-041B6B66CA3E}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$11</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2082,7 +2115,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6     </c:v>
+                  <c:v>6     Authenticity of information is not verified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2138,7 +2171,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{411D6935-42B6-4F4B-80AD-BF6E3952DB88}</c15:txfldGUID>
+                      <c15:txfldGUID>{B1A43C37-650F-E643-86AE-C40CB7EFDFA2}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$12</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2235,7 +2268,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7     </c:v>
+                  <c:v>7     Compliance and regulation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2313,7 +2346,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F7C3466E-1CC2-D74A-874E-26A38CAD52B2}</c15:txfldGUID>
+                      <c15:txfldGUID>{758BA214-05D6-E24B-A478-BA59DC740C0D}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$13</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2412,7 +2445,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8     </c:v>
+                  <c:v>8     SLA violation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2491,7 +2524,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A334CF86-9AF4-A543-8542-654BBD2F88AF}</c15:txfldGUID>
+                      <c15:txfldGUID>{00298572-C90D-5B4B-A6BC-7C99B0F88BC3}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$14</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2588,7 +2621,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9     </c:v>
+                  <c:v>9     Internal risk of automated information</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2667,7 +2700,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1DD1D357-3FE3-AA4B-9607-C31CCAB2F2F1}</c15:txfldGUID>
+                      <c15:txfldGUID>{9F4195DE-5211-EE41-BB39-C9C7A5E5B8A8}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$15</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2843,7 +2876,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{47C9A310-59D9-7248-BBBE-EED6DD4FC603}</c15:txfldGUID>
+                      <c15:txfldGUID>{C7AAC1B6-4784-304D-8726-89EF0FB75B99}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$16</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3019,7 +3052,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CDCECE08-F1A5-0940-8519-33DFFE444765}</c15:txfldGUID>
+                      <c15:txfldGUID>{71A25C16-9500-D848-B58C-C8E2F840863B}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$17</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3195,7 +3228,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DAD946C7-7DE3-7840-A873-D3ACE5490998}</c15:txfldGUID>
+                      <c15:txfldGUID>{844B975B-EBDE-5A44-A31E-8A9919A14033}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$18</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3371,7 +3404,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AD8CC14D-BEE9-FB4D-B82F-DE67A3481B69}</c15:txfldGUID>
+                      <c15:txfldGUID>{F7E6BECC-F62F-5B4A-82F8-C9E95B7FD2F4}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$19</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3547,7 +3580,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C5F90CB2-43AD-BE4E-A62A-F530EF940214}</c15:txfldGUID>
+                      <c15:txfldGUID>{F3FC3DD5-B882-BF4E-9D3F-EB0DB8B149C3}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$20</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3723,7 +3756,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D2F9210A-FA01-D54C-A7C1-6E1A0DCCCA58}</c15:txfldGUID>
+                      <c15:txfldGUID>{06338556-7AA5-074B-BB86-056423540DED}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$21</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3899,7 +3932,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AC82A0E7-1132-294F-A784-C841DE46B99C}</c15:txfldGUID>
+                      <c15:txfldGUID>{D6981E4B-5FAF-5143-95BD-F6247C0CFE9E}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$22</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4075,7 +4108,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{192D421C-C20B-2247-ABB4-F49E8A00A39D}</c15:txfldGUID>
+                      <c15:txfldGUID>{E78485AA-360A-3B40-B977-F2F4A5D67DFD}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$23</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4251,7 +4284,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8812C8A9-1C12-FB47-AB82-B22E6BC8BEEF}</c15:txfldGUID>
+                      <c15:txfldGUID>{BDCFAC5D-F7F6-E54D-B859-F1D4311BC576}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$24</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4427,7 +4460,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{06000AEE-E553-4849-84FE-EFD1F95FFA34}</c15:txfldGUID>
+                      <c15:txfldGUID>{ECA05743-6746-7F4A-9A02-491F38FD0E7E}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$25</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4608,7 +4641,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A0C414F8-6038-1843-BD36-6EFF2468C389}</c15:txfldGUID>
+                      <c15:txfldGUID>{D59BCE6C-5D3B-3F46-81F2-3F92E879DC40}</c15:txfldGUID>
                       <c15:f>Risikobericht!$A$26</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5813,8 +5846,8 @@
   </sheetPr>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5863,10 +5896,10 @@
       <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="47"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -5886,38 +5919,38 @@
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="42"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="50" t="s">
+      <c r="G5" s="55"/>
+      <c r="H5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="52" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="20" t="s">
         <v>11</v>
       </c>
@@ -6025,10 +6058,14 @@
       </c>
       <c r="B9" s="37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">3     </v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="11"/>
+        <v>3     Information being copied</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="11"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -6051,11 +6088,17 @@
       </c>
       <c r="B10" s="37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">4     </v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+        <v>4     Competition</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -6077,9 +6120,11 @@
       </c>
       <c r="B11" s="37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">5     </v>
-      </c>
-      <c r="C11" s="11"/>
+        <v>5     Negative marketing</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="21"/>
@@ -6097,15 +6142,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.15">
       <c r="A12" s="35">
         <v>6</v>
       </c>
       <c r="B12" s="37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">6     </v>
-      </c>
-      <c r="C12" s="11"/>
+        <v>6     Authenticity of information is not verified</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="21"/>
@@ -6129,9 +6176,11 @@
       </c>
       <c r="B13" s="37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">7     </v>
-      </c>
-      <c r="C13" s="11"/>
+        <v>7     Compliance and regulation</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="21"/>
@@ -6155,9 +6204,11 @@
       </c>
       <c r="B14" s="37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">8     </v>
-      </c>
-      <c r="C14" s="11"/>
+        <v>8     SLA violation</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="21"/>
@@ -6181,10 +6232,14 @@
       </c>
       <c r="B15" s="37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">9     </v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+        <v>9     Internal risk of automated information</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -6489,15 +6544,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:D8 B11:D26 B9:B10 D9:D10">
     <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
